--- a/tm2025-sm-1.xlsx
+++ b/tm2025-sm-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\меню 11 школа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\PycharmProjects\menu_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1165,6 +1165,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1176,15 +1185,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,10 +1512,10 @@
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1538,23 +1538,23 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -1564,12 +1564,12 @@
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2112,10 +2112,10 @@
         <f>B6</f>
         <v>1</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="82"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32">
         <f>F12+F21</f>
@@ -2658,10 +2658,10 @@
         <f>B23</f>
         <v>2</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="82"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="31"/>
       <c r="F40" s="32">
         <f>F30+F39</f>
@@ -3186,10 +3186,10 @@
         <f>B41</f>
         <v>3</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="C58" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="82"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="31"/>
       <c r="F58" s="32">
         <f>F47+F57</f>
@@ -3750,10 +3750,10 @@
         <f>B59</f>
         <v>4</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="82"/>
+      <c r="D76" s="79"/>
       <c r="E76" s="31"/>
       <c r="F76" s="32">
         <f>F65+F75</f>
@@ -4284,10 +4284,10 @@
         <f>B77</f>
         <v>5</v>
       </c>
-      <c r="C93" s="81" t="s">
+      <c r="C93" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="82"/>
+      <c r="D93" s="79"/>
       <c r="E93" s="31"/>
       <c r="F93" s="32">
         <f>F83+F92</f>
@@ -4768,10 +4768,10 @@
         <f>B94</f>
         <v>1</v>
       </c>
-      <c r="C109" s="81" t="s">
+      <c r="C109" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="82"/>
+      <c r="D109" s="79"/>
       <c r="E109" s="31"/>
       <c r="F109" s="32">
         <f>F100+F108</f>
@@ -5302,10 +5302,10 @@
         <f>B110</f>
         <v>2</v>
       </c>
-      <c r="C126" s="81" t="s">
+      <c r="C126" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="82"/>
+      <c r="D126" s="79"/>
       <c r="E126" s="31"/>
       <c r="F126" s="32">
         <f>F116+F125</f>
@@ -5832,10 +5832,10 @@
         <f>B127</f>
         <v>3</v>
       </c>
-      <c r="C144" s="81" t="s">
+      <c r="C144" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="82"/>
+      <c r="D144" s="79"/>
       <c r="E144" s="31"/>
       <c r="F144" s="32">
         <f>F134+F143</f>
@@ -6380,10 +6380,10 @@
         <f>B145</f>
         <v>4</v>
       </c>
-      <c r="C162" s="81" t="s">
+      <c r="C162" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="82"/>
+      <c r="D162" s="79"/>
       <c r="E162" s="31"/>
       <c r="F162" s="32">
         <f>F151+F161</f>
@@ -6910,10 +6910,10 @@
         <f>B163</f>
         <v>5</v>
       </c>
-      <c r="C180" s="81" t="s">
+      <c r="C180" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="82"/>
+      <c r="D180" s="79"/>
       <c r="E180" s="31"/>
       <c r="F180" s="32">
         <f>F170+F179</f>
@@ -6944,11 +6944,11 @@
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="28"/>
-      <c r="C181" s="83" t="s">
+      <c r="C181" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D181" s="83"/>
-      <c r="E181" s="83"/>
+      <c r="D181" s="80"/>
+      <c r="E181" s="80"/>
       <c r="F181" s="34">
         <f>(F22+F40+F58+F76+F93+F109+F126+F144+F162+F180)/(IF(F22=0,0,1)+IF(F40=0,0,1)+IF(F58=0,0,1)+IF(F76=0,0,1)+IF(F93=0,0,1)+IF(F109=0,0,1)+IF(F126=0,0,1)+IF(F144=0,0,1)+IF(F162=0,0,1)+IF(F180=0,0,1))</f>
         <v>1408.5</v>
@@ -6977,6 +6977,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="C22:D22"/>
@@ -6986,11 +6991,6 @@
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
